--- a/Дела.xlsx
+++ b/Дела.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="9555" windowHeight="7740"/>
@@ -14,12 +14,12 @@
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
     <sheet name="Лист6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="132">
   <si>
     <t>Дела</t>
   </si>
@@ -57,15 +57,9 @@
     <t>Кэш</t>
   </si>
   <si>
-    <t>робот.тхт</t>
-  </si>
-  <si>
     <t>добавить выбор размера у майки\формата у плаката.етс.</t>
   </si>
   <si>
-    <t>Составить таблицу по рекламе</t>
-  </si>
-  <si>
     <t>Связаться с группами и сайтами маленьких гордов</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>Супермен как лучший супергерой</t>
   </si>
   <si>
-    <t>Почему у нас не любят Супермена</t>
-  </si>
-  <si>
     <t>Вид рекламы</t>
   </si>
   <si>
@@ -408,14 +399,29 @@
     <t>Telegram</t>
   </si>
   <si>
-    <t>Телегра-канал!</t>
+    <t>Телеграм-канал!</t>
+  </si>
+  <si>
+    <t>МИКРОФОН</t>
+  </si>
+  <si>
+    <t>Пагинация</t>
+  </si>
+  <si>
+    <t>робот.тхт  ОТЛОЖТЬ</t>
+  </si>
+  <si>
+    <t>Сайтмар  ОТЛОЖИТЬ</t>
+  </si>
+  <si>
+    <t>РЕСАЙЗ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,10 +514,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -602,6 +608,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -636,6 +643,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -811,37 +819,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.75">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -849,214 +857,224 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.75">
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="18.75">
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="18.75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="18.75">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="18.75">
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="4" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="4" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="4" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="4" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1064,11 +1082,11 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A33" r:id="rId1"/>
-    <hyperlink ref="A34" r:id="rId2"/>
-    <hyperlink ref="A35" r:id="rId3"/>
-    <hyperlink ref="A38" r:id="rId4"/>
-    <hyperlink ref="A40" r:id="rId5"/>
+    <hyperlink ref="A35" r:id="rId1"/>
+    <hyperlink ref="A36" r:id="rId2"/>
+    <hyperlink ref="A37" r:id="rId3"/>
+    <hyperlink ref="A40" r:id="rId4"/>
+    <hyperlink ref="A42" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -1076,14 +1094,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -1092,232 +1110,232 @@
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" s="5">
         <v>1975000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" s="5">
         <v>535000</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" s="5">
         <v>380000</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5">
         <v>380000</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5">
         <v>370000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7" s="5">
         <v>343000</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C8" s="5">
         <v>217000</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" s="5">
         <v>179000</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C10" s="5">
         <v>143000</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C11" s="5">
         <v>138000</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C12" s="5">
         <v>115000</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C13" s="5">
         <v>111000</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" s="5">
         <v>108000</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C15" s="5">
         <v>106000</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C16" s="5">
         <v>101000</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C17" s="5">
         <v>95000</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C18" s="5">
         <v>85000</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" s="5">
         <v>76000</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C20" s="5">
         <v>68000</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C21" s="5">
         <v>66000</v>
@@ -1329,14 +1347,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
@@ -1348,70 +1366,70 @@
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
       <c r="H1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H2">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
         <v>104</v>
       </c>
-      <c r="C7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" t="s">
-        <v>107</v>
-      </c>
       <c r="E7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B8">
         <v>400</v>
@@ -1428,9 +1446,9 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D9">
         <f t="shared" ref="D9:D15" si="0">C9*B9</f>
@@ -1441,9 +1459,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>1750</v>
@@ -1460,9 +1478,9 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B11">
         <v>4000</v>
@@ -1479,9 +1497,9 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B12">
         <v>2500</v>
@@ -1498,9 +1516,9 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B13">
         <v>4000</v>
@@ -1517,9 +1535,9 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B14">
         <v>4000</v>
@@ -1536,9 +1554,9 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>5000</v>
@@ -1555,38 +1573,38 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8">
         <f>SUM(D8:D16)</f>
         <v>44100</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <f>D17*3</f>
         <v>132300</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B21">
         <v>400</v>
@@ -1603,12 +1621,12 @@
         <v>4800</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22:D26" si="2">C22*B22</f>
@@ -1619,9 +1637,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B23">
         <v>600</v>
@@ -1638,9 +1656,9 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B24">
         <v>750</v>
@@ -1657,12 +1675,12 @@
         <v>9000</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="24">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B25">
         <v>600</v>
@@ -1679,12 +1697,12 @@
         <v>7200</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>50</v>
@@ -1701,34 +1719,34 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8">
         <f>SUM(D21:D27)</f>
         <v>9500</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <f>D28*3</f>
         <v>28500</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B34">
         <v>5000</v>
@@ -1740,9 +1758,9 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1752,63 +1770,63 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
       <c r="G1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1817,32 +1835,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1851,53 +1869,53 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>120</v>
       </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>121</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>124</v>
       </c>
       <c r="D2">
         <v>4000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D3">
         <v>2000</v>

--- a/Дела.xlsx
+++ b/Дела.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="9555" windowHeight="7740"/>
@@ -14,12 +14,12 @@
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
     <sheet name="Лист6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
   <si>
     <t>Дела</t>
   </si>
@@ -124,12 +124,6 @@
   </si>
   <si>
     <t>Почему русскай фантастика - говно</t>
-  </si>
-  <si>
-    <t>http://kiri2ll.livejournal.com/738731.html</t>
-  </si>
-  <si>
-    <t>http://kiri2ll.livejournal.com/746433.html</t>
   </si>
   <si>
     <t>ПОЧЕМУ КИНО СТОИТ СМОТРЕТЬ ОДИН РАЗ</t>
@@ -420,8 +414,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,7 +602,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -643,7 +636,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -819,21 +811,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="56.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -849,7 +841,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -863,14 +855,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="18.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -880,31 +872,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.75">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -912,7 +904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -920,17 +912,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -938,143 +930,139 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1085,23 +1073,21 @@
     <hyperlink ref="A35" r:id="rId1"/>
     <hyperlink ref="A36" r:id="rId2"/>
     <hyperlink ref="A37" r:id="rId3"/>
-    <hyperlink ref="A40" r:id="rId4"/>
-    <hyperlink ref="A42" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -1110,232 +1096,232 @@
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="5">
         <v>1975000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="5">
         <v>535000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="5">
         <v>380000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" s="5">
         <v>380000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5">
         <v>370000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="5">
         <v>343000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" s="5">
         <v>217000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="5">
         <v>179000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="5">
         <v>143000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="5">
         <v>138000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" s="5">
         <v>115000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="5">
         <v>111000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="5">
         <v>108000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C15" s="5">
         <v>106000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" s="5">
         <v>101000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17" s="5">
         <v>95000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" s="5">
         <v>85000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="5">
         <v>76000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C20" s="5">
         <v>68000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" s="5">
         <v>66000</v>
@@ -1347,14 +1333,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
@@ -1366,70 +1352,70 @@
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H2">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
         <v>102</v>
       </c>
-      <c r="D7" t="s">
-        <v>104</v>
-      </c>
       <c r="E7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8">
         <v>400</v>
@@ -1446,9 +1432,9 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9">
         <f t="shared" ref="D9:D15" si="0">C9*B9</f>
@@ -1459,9 +1445,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>1750</v>
@@ -1478,9 +1464,9 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11">
         <v>4000</v>
@@ -1497,9 +1483,9 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>2500</v>
@@ -1516,9 +1502,9 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13">
         <v>4000</v>
@@ -1535,9 +1521,9 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B14">
         <v>4000</v>
@@ -1554,9 +1540,9 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>5000</v>
@@ -1573,9 +1559,9 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1588,23 +1574,23 @@
         <v>132300</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" t="s">
         <v>108</v>
       </c>
-      <c r="E20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>400</v>
@@ -1621,12 +1607,12 @@
         <v>4800</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22:D26" si="2">C22*B22</f>
@@ -1637,9 +1623,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>600</v>
@@ -1656,9 +1642,9 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24">
         <v>750</v>
@@ -1675,12 +1661,12 @@
         <v>9000</v>
       </c>
       <c r="F24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="24">
       <c r="A25" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B25">
         <v>600</v>
@@ -1697,12 +1683,12 @@
         <v>7200</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>50</v>
@@ -1719,9 +1705,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1734,19 +1720,19 @@
         <v>28500</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B34">
         <v>5000</v>
@@ -1758,9 +1744,9 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1770,63 +1756,63 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1835,32 +1821,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1869,53 +1855,53 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
         <v>119</v>
-      </c>
-      <c r="C1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
       </c>
       <c r="D2">
         <v>4000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>2000</v>

--- a/Дела.xlsx
+++ b/Дела.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="129">
   <si>
     <t>Дела</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>http://darknet.lenta.ru/</t>
-  </si>
-  <si>
-    <t>https://www.kinopoisk.ru/article/2871726/</t>
   </si>
   <si>
     <t>темы:</t>
@@ -814,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -879,7 +876,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75">
@@ -937,17 +934,17 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -962,7 +959,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -982,12 +979,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -1011,9 +1008,7 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A37" s="4"/>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4"/>
@@ -1032,37 +1027,37 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1072,10 +1067,9 @@
   <hyperlinks>
     <hyperlink ref="A35" r:id="rId1"/>
     <hyperlink ref="A36" r:id="rId2"/>
-    <hyperlink ref="A37" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1098,21 +1092,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="5">
         <v>1975000</v>
@@ -1120,10 +1114,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="5">
         <v>535000</v>
@@ -1131,10 +1125,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5">
         <v>380000</v>
@@ -1142,10 +1136,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="5">
         <v>380000</v>
@@ -1153,10 +1147,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="5">
         <v>370000</v>
@@ -1164,10 +1158,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="5">
         <v>343000</v>
@@ -1175,10 +1169,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="5">
         <v>217000</v>
@@ -1186,10 +1180,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="5">
         <v>179000</v>
@@ -1197,10 +1191,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="5">
         <v>143000</v>
@@ -1208,10 +1202,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="5">
         <v>138000</v>
@@ -1219,10 +1213,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="5">
         <v>115000</v>
@@ -1230,10 +1224,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="5">
         <v>111000</v>
@@ -1241,10 +1235,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="5">
         <v>108000</v>
@@ -1252,10 +1246,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="5">
         <v>106000</v>
@@ -1263,10 +1257,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="5">
         <v>101000</v>
@@ -1274,10 +1268,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="5">
         <v>95000</v>
@@ -1285,10 +1279,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="5">
         <v>85000</v>
@@ -1296,10 +1290,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="5">
         <v>76000</v>
@@ -1307,10 +1301,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="5">
         <v>68000</v>
@@ -1318,10 +1312,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="5">
         <v>66000</v>
@@ -1354,33 +1348,33 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H2">
         <v>3000</v>
@@ -1388,34 +1382,34 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
         <v>99</v>
       </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>400</v>
@@ -1434,7 +1428,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <f t="shared" ref="D9:D15" si="0">C9*B9</f>
@@ -1447,7 +1441,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>1750</v>
@@ -1466,7 +1460,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11">
         <v>4000</v>
@@ -1485,7 +1479,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12">
         <v>2500</v>
@@ -1504,7 +1498,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13">
         <v>4000</v>
@@ -1523,7 +1517,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14">
         <v>4000</v>
@@ -1542,7 +1536,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>5000</v>
@@ -1561,7 +1555,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1576,21 +1570,21 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21">
         <v>400</v>
@@ -1607,12 +1601,12 @@
         <v>4800</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22:D26" si="2">C22*B22</f>
@@ -1625,7 +1619,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23">
         <v>600</v>
@@ -1644,7 +1638,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24">
         <v>750</v>
@@ -1661,12 +1655,12 @@
         <v>9000</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="24">
       <c r="A25" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25">
         <v>600</v>
@@ -1683,12 +1677,12 @@
         <v>7200</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>50</v>
@@ -1707,7 +1701,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1722,17 +1716,17 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34">
         <v>5000</v>
@@ -1746,7 +1740,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1771,48 +1765,48 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1835,18 +1829,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1870,24 +1864,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" t="s">
-        <v>116</v>
-      </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
         <v>118</v>
-      </c>
-      <c r="C2" t="s">
-        <v>119</v>
       </c>
       <c r="D2">
         <v>4000</v>
@@ -1895,13 +1889,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3">
         <v>2000</v>
